--- a/rpa_amazon/robot/productos.xlsx
+++ b/rpa_amazon/robot/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\github\consulta_Amazon\rpa_amazon\robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A409BF-97C6-4F96-B2B2-9D585BEC4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D550533-ABA3-4E98-80AE-98891F1CD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54720" yWindow="-10875" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2010" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>zapatos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>xbox</t>
   </si>
@@ -36,10 +33,16 @@
     <t>play station</t>
   </si>
   <si>
-    <t>gorra</t>
-  </si>
-  <si>
     <t>items</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>cartera</t>
+  </si>
+  <si>
+    <t>alfombra</t>
   </si>
 </sst>
 </file>
@@ -357,35 +360,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/rpa_amazon/robot/productos.xlsx
+++ b/rpa_amazon/robot/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\github\consulta_Amazon\rpa_amazon\robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D550533-ABA3-4E98-80AE-98891F1CD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DFB0B-E08F-4541-A781-6614B97E54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2010" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,22 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>xbox</t>
-  </si>
-  <si>
     <t>play station</t>
   </si>
   <si>
     <t>items</t>
   </si>
   <si>
-    <t>mouse</t>
-  </si>
-  <si>
     <t>cartera</t>
   </si>
   <si>
-    <t>alfombra</t>
+    <t>teclado</t>
+  </si>
+  <si>
+    <t>camara</t>
+  </si>
+  <si>
+    <t>almohada</t>
   </si>
 </sst>
 </file>
@@ -363,34 +363,34 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
